--- a/report/time-size-craft2.xlsx
+++ b/report/time-size-craft2.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="time-size-craft2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1064,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1157,431 +1157,541 @@
         <v>485</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>31529</v>
-      </c>
-      <c r="B7">
-        <v>105013</v>
-      </c>
-      <c r="C7">
-        <v>514868</v>
-      </c>
-      <c r="D7">
-        <v>1336</v>
-      </c>
-      <c r="E7">
-        <v>1345</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <f>_xlfn.STDEV.P(A1:A5)</f>
+        <v>4307.6766545319997</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:E6" si="0">_xlfn.STDEV.P(B1:B5)</f>
+        <v>5077.9655138647804</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>4187.3605337969175</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>5.5713553108736473</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>6.2801273872430317</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>26673</v>
+        <v>31529</v>
       </c>
       <c r="B8">
-        <v>73670</v>
+        <v>105013</v>
       </c>
       <c r="C8">
-        <v>432449</v>
+        <v>514868</v>
       </c>
       <c r="D8">
-        <v>1318</v>
+        <v>1336</v>
       </c>
       <c r="E8">
-        <v>1398</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>26095</v>
+        <v>26673</v>
       </c>
       <c r="B9">
-        <v>73496</v>
+        <v>73670</v>
       </c>
       <c r="C9">
-        <v>426625</v>
+        <v>432449</v>
       </c>
       <c r="D9">
-        <v>1336</v>
+        <v>1318</v>
       </c>
       <c r="E9">
-        <v>1126</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>26096</v>
+        <v>26095</v>
       </c>
       <c r="B10">
-        <v>73460</v>
+        <v>73496</v>
       </c>
       <c r="C10">
-        <v>443161</v>
+        <v>426625</v>
       </c>
       <c r="D10">
-        <v>1322</v>
+        <v>1336</v>
       </c>
       <c r="E10">
-        <v>1114</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
+        <v>26096</v>
+      </c>
+      <c r="B11">
+        <v>73460</v>
+      </c>
+      <c r="C11">
+        <v>443161</v>
+      </c>
+      <c r="D11">
+        <v>1322</v>
+      </c>
+      <c r="E11">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
         <v>26223</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>73624</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>432343</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>1325</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>1115</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>58615</v>
+        <f>_xlfn.STDEV.P(A8:A12)</f>
+        <v>2113.5964042361538</v>
       </c>
       <c r="B13">
-        <v>235295</v>
+        <f t="shared" ref="B13:E13" si="1">_xlfn.STDEV.P(B8:B12)</f>
+        <v>12580.440590058839</v>
       </c>
       <c r="C13">
-        <v>1202014</v>
+        <f t="shared" si="1"/>
+        <v>32926.481247773801</v>
       </c>
       <c r="D13">
-        <v>2204</v>
+        <f t="shared" si="1"/>
+        <v>7.3647810558087876</v>
       </c>
       <c r="E13">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>58866</v>
-      </c>
-      <c r="B14">
-        <v>164869</v>
-      </c>
-      <c r="C14">
-        <v>1003969</v>
-      </c>
-      <c r="D14">
-        <v>2185</v>
-      </c>
-      <c r="E14">
-        <v>1763</v>
+        <f t="shared" si="1"/>
+        <v>125.2239593688045</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>60990</v>
+        <v>58615</v>
       </c>
       <c r="B15">
-        <v>164778</v>
+        <v>235295</v>
       </c>
       <c r="C15">
-        <v>1008364</v>
+        <v>1202014</v>
       </c>
       <c r="D15">
-        <v>2192</v>
+        <v>2204</v>
       </c>
       <c r="E15">
-        <v>1762</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>58804</v>
+        <v>58866</v>
       </c>
       <c r="B16">
-        <v>166285</v>
+        <v>164869</v>
       </c>
       <c r="C16">
-        <v>988798</v>
+        <v>1003969</v>
       </c>
       <c r="D16">
-        <v>2198</v>
+        <v>2185</v>
       </c>
       <c r="E16">
-        <v>1765</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>58768</v>
+        <v>60990</v>
       </c>
       <c r="B17">
-        <v>164806</v>
+        <v>164778</v>
       </c>
       <c r="C17">
-        <v>999859</v>
+        <v>1008364</v>
       </c>
       <c r="D17">
-        <v>2188</v>
+        <v>2192</v>
       </c>
       <c r="E17">
-        <v>1764</v>
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>58804</v>
+      </c>
+      <c r="B18">
+        <v>166285</v>
+      </c>
+      <c r="C18">
+        <v>988798</v>
+      </c>
+      <c r="D18">
+        <v>2198</v>
+      </c>
+      <c r="E18">
+        <v>1765</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>109407</v>
+        <v>58768</v>
       </c>
       <c r="B19">
-        <v>417899</v>
+        <v>164806</v>
       </c>
       <c r="C19">
-        <v>2200265</v>
+        <v>999859</v>
       </c>
       <c r="D19">
-        <v>2794</v>
+        <v>2188</v>
       </c>
       <c r="E19">
-        <v>2407</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>106817</v>
+        <f>_xlfn.STDEV.P(A15:A19)</f>
+        <v>894.53353207132488</v>
       </c>
       <c r="B20">
-        <v>292246</v>
+        <f t="shared" ref="B20:E20" si="2">_xlfn.STDEV.P(B15:B19)</f>
+        <v>28049.972952571628</v>
       </c>
       <c r="C20">
-        <v>1779141</v>
+        <f t="shared" si="2"/>
+        <v>80967.580592234575</v>
       </c>
       <c r="D20">
-        <v>2777</v>
+        <f t="shared" si="2"/>
+        <v>6.8585712797928995</v>
       </c>
       <c r="E20">
-        <v>2407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>104315</v>
-      </c>
-      <c r="B21">
-        <v>293068</v>
-      </c>
-      <c r="C21">
-        <v>1786973</v>
-      </c>
-      <c r="D21">
-        <v>2779</v>
-      </c>
-      <c r="E21">
-        <v>2408</v>
+        <f t="shared" si="2"/>
+        <v>3.1622776601683795</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>103991</v>
+        <v>109407</v>
       </c>
       <c r="B22">
-        <v>292243</v>
+        <v>417899</v>
       </c>
       <c r="C22">
-        <v>1784281</v>
+        <v>2200265</v>
       </c>
       <c r="D22">
-        <v>2778</v>
+        <v>2794</v>
       </c>
       <c r="E22">
-        <v>2411</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>103840</v>
+        <v>106817</v>
       </c>
       <c r="B23">
-        <v>292134</v>
+        <v>292246</v>
       </c>
       <c r="C23">
-        <v>1779014</v>
+        <v>1779141</v>
       </c>
       <c r="D23">
-        <v>2771</v>
+        <v>2777</v>
       </c>
       <c r="E23">
-        <v>2410</v>
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>104315</v>
+      </c>
+      <c r="B24">
+        <v>293068</v>
+      </c>
+      <c r="C24">
+        <v>1786973</v>
+      </c>
+      <c r="D24">
+        <v>2779</v>
+      </c>
+      <c r="E24">
+        <v>2408</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>158802</v>
+        <v>103991</v>
       </c>
       <c r="B25">
-        <v>651539</v>
+        <v>292243</v>
       </c>
       <c r="C25">
-        <v>3508820</v>
+        <v>1784281</v>
       </c>
       <c r="D25">
-        <v>3515</v>
+        <v>2778</v>
       </c>
       <c r="E25">
-        <v>3063</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>163314</v>
+        <v>103840</v>
       </c>
       <c r="B26">
-        <v>456036</v>
+        <v>292134</v>
       </c>
       <c r="C26">
-        <v>2797966</v>
+        <v>1779014</v>
       </c>
       <c r="D26">
-        <v>3494</v>
+        <v>2771</v>
       </c>
       <c r="E26">
-        <v>3072</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>163412</v>
+        <f>_xlfn.STDEV.P(A22:A26)</f>
+        <v>2157.9927710722295</v>
       </c>
       <c r="B27">
-        <v>456271</v>
+        <f t="shared" ref="B27:E27" si="3">_xlfn.STDEV.P(B22:B26)</f>
+        <v>50191.622261090546</v>
       </c>
       <c r="C27">
-        <v>2839297</v>
+        <f t="shared" si="3"/>
+        <v>167192.93091324167</v>
       </c>
       <c r="D27">
-        <v>3528</v>
+        <f t="shared" si="3"/>
+        <v>7.6262703859750474</v>
       </c>
       <c r="E27">
-        <v>3062</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>164135</v>
-      </c>
-      <c r="B28">
-        <v>456478</v>
-      </c>
-      <c r="C28">
-        <v>2798726</v>
-      </c>
-      <c r="D28">
-        <v>3498</v>
-      </c>
-      <c r="E28">
-        <v>3063</v>
+        <f t="shared" si="3"/>
+        <v>1.6248076809271921</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
+        <v>158802</v>
+      </c>
+      <c r="B29">
+        <v>651539</v>
+      </c>
+      <c r="C29">
+        <v>3508820</v>
+      </c>
+      <c r="D29">
+        <v>3515</v>
+      </c>
+      <c r="E29">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>163314</v>
+      </c>
+      <c r="B30">
+        <v>456036</v>
+      </c>
+      <c r="C30">
+        <v>2797966</v>
+      </c>
+      <c r="D30">
+        <v>3494</v>
+      </c>
+      <c r="E30">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>163412</v>
+      </c>
+      <c r="B31">
+        <v>456271</v>
+      </c>
+      <c r="C31">
+        <v>2839297</v>
+      </c>
+      <c r="D31">
+        <v>3528</v>
+      </c>
+      <c r="E31">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>164135</v>
+      </c>
+      <c r="B32">
+        <v>456478</v>
+      </c>
+      <c r="C32">
+        <v>2798726</v>
+      </c>
+      <c r="D32">
+        <v>3498</v>
+      </c>
+      <c r="E32">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33">
         <v>166161</v>
       </c>
-      <c r="B29">
+      <c r="B33">
         <v>456175</v>
       </c>
-      <c r="C29">
+      <c r="C33">
         <v>2800456</v>
       </c>
-      <c r="D29">
+      <c r="D33">
         <v>3495</v>
       </c>
-      <c r="E29">
+      <c r="E33">
         <v>3062</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+      <c r="A34">
+        <f>_xlfn.STDEV.P(A29:A33)</f>
+        <v>2409.8089052868904</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:E34" si="4">_xlfn.STDEV.P(B29:B33)</f>
+        <v>78119.732419920634</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="4"/>
+        <v>280318.40136958542</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="4"/>
+        <v>13.371611720357423</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="4"/>
+        <v>3.826225293941798</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="3">
         <v>9078</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B38" s="4">
         <v>28246</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C38" s="4">
         <v>118788</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D38" s="4">
         <v>709</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E38" s="5">
         <v>488</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="6">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="6">
         <v>26868</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B39" s="1">
         <v>80684</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C39" s="1">
         <v>447903</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D39" s="1">
         <v>1327</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E39" s="7">
         <v>1118</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="6">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="6">
         <v>59208</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B40" s="1">
         <v>179206</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C40" s="1">
         <v>1040600</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D40" s="1">
         <v>2193</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E40" s="7">
         <v>1765</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="6">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="6">
         <v>105674</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B41" s="1">
         <v>317518</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C41" s="1">
         <v>1865934</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D41" s="1">
         <v>2779</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E41" s="7">
         <v>2408</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="8">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="8">
         <v>163164</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B42" s="2">
         <v>495299</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C42" s="2">
         <v>2949053</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D42" s="2">
         <v>3506</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E42" s="9">
         <v>3064</v>
       </c>
     </row>
